--- a/Lapora Jumlah Penduduk Desa Bintang.xlsx
+++ b/Lapora Jumlah Penduduk Desa Bintang.xlsx
@@ -205,6 +205,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,9 +215,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,19 +534,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.6">
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -582,31 +582,31 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="6" t="s">
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="2" t="s">
         <v>12</v>
       </c>
@@ -680,61 +680,61 @@
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="3">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E10" s="3">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F10" s="3">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T10" s="3">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U10" s="3">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -748,22 +748,22 @@
         <v>65</v>
       </c>
       <c r="D11" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3">
         <v>133</v>
       </c>
       <c r="F11" s="3">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E12" s="3">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F12" s="3">
         <v>466</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -849,22 +849,22 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T12" s="3">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="U12" s="3">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -878,13 +878,13 @@
         <v>115</v>
       </c>
       <c r="D13" s="3">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E13" s="3">
         <v>249</v>
       </c>
       <c r="F13" s="3">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -923,13 +923,13 @@
         <v>0</v>
       </c>
       <c r="S13" s="3">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T13" s="3">
         <v>249</v>
       </c>
       <c r="U13" s="3">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -943,22 +943,22 @@
         <v>82</v>
       </c>
       <c r="D14" s="3">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E14" s="3">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F14" s="3">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T14" s="3">
         <v>165</v>
       </c>
       <c r="U14" s="3">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
@@ -1008,58 +1008,58 @@
         <v>629</v>
       </c>
       <c r="D15" s="3">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="E15" s="3">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F15" s="3">
-        <v>2253</v>
+        <v>2259</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="T15" s="3">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="U15" s="3">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
   </sheetData>
